--- a/fermentation_insights/TRY_results/d_spearman_general_takeaways.xlsx
+++ b/fermentation_insights/TRY_results/d_spearman_general_takeaways.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>product</t>
   </si>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>TAL</t>
+  </si>
+  <si>
+    <t>TAL_SA</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HP_neutral</t>
+  </si>
+  <si>
+    <t>HP_hexanol</t>
+  </si>
+  <si>
+    <t>HP_neutral_hexanol</t>
   </si>
   <si>
     <t>glucose</t>
@@ -431,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,46 +507,46 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>0.06474670074670075</v>
+        <v>-0.06680645480645481</v>
       </c>
       <c r="E2">
-        <v>0.1793568593568594</v>
+        <v>0.191043587043587</v>
       </c>
       <c r="F2">
-        <v>-0.107997695997696</v>
+        <v>-0.002883434883434883</v>
       </c>
       <c r="G2">
-        <v>0.007219459219459219</v>
+        <v>0.01056975456975457</v>
       </c>
       <c r="H2">
-        <v>0.02329358329358329</v>
+        <v>0.01628027228027228</v>
       </c>
       <c r="I2">
-        <v>0.04143871743871744</v>
+        <v>0.04695346695346695</v>
       </c>
       <c r="J2">
-        <v>-0.005146577146577147</v>
+        <v>0.00681004281004281</v>
       </c>
       <c r="K2">
-        <v>0.02986756186756187</v>
+        <v>0.01784297384297384</v>
       </c>
       <c r="L2">
-        <v>-0.01503194703194703</v>
+        <v>-0.01273039273039273</v>
       </c>
       <c r="M2">
-        <v>-0.01302808902808903</v>
+        <v>-0.02045904845904846</v>
       </c>
       <c r="N2">
-        <v>0.08239215439215439</v>
+        <v>0.08106758106758107</v>
       </c>
       <c r="O2">
-        <v>-0.04485574485574485</v>
+        <v>-0.06595367395367395</v>
       </c>
       <c r="P2">
-        <v>-0.000881004881004881</v>
+        <v>-0.006975726975726976</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -542,46 +557,46 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>0.1902816222816223</v>
+        <v>0.2326101406101406</v>
       </c>
       <c r="E3">
-        <v>-0.06450703650703651</v>
+        <v>0.04272379872379872</v>
       </c>
       <c r="F3">
-        <v>0.06323745923745924</v>
+        <v>0.04373823173823174</v>
       </c>
       <c r="G3">
-        <v>0.1308446988446988</v>
+        <v>-0.02741673941673942</v>
       </c>
       <c r="H3">
-        <v>0.01347426147426148</v>
+        <v>-0.01979173979173979</v>
       </c>
       <c r="I3">
-        <v>-0.0167989247989248</v>
+        <v>0.02928362928362929</v>
       </c>
       <c r="J3">
-        <v>-0.07528218328218328</v>
+        <v>-0.05348317748317748</v>
       </c>
       <c r="K3">
-        <v>0.02354756354756355</v>
+        <v>0.04557842157842158</v>
       </c>
       <c r="L3">
-        <v>0.0066993426993427</v>
+        <v>-0.02036049236049236</v>
       </c>
       <c r="M3">
-        <v>-0.1090600810600811</v>
+        <v>-0.146997494997495</v>
       </c>
       <c r="N3">
-        <v>-0.07285498885498885</v>
+        <v>0.01788228588228588</v>
       </c>
       <c r="O3">
-        <v>0.1331017571017571</v>
+        <v>-0.1278009318009318</v>
       </c>
       <c r="P3">
-        <v>0.104979140979141</v>
+        <v>0.05181077181077181</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -592,46 +607,46 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>-0.1803351843351843</v>
+        <v>-0.1226560106560107</v>
       </c>
       <c r="E4">
-        <v>0.1073544833544834</v>
+        <v>0.1177532017532018</v>
       </c>
       <c r="F4">
-        <v>-0.03268823668823669</v>
+        <v>-0.04079068079068079</v>
       </c>
       <c r="G4">
-        <v>-0.1404728004728005</v>
+        <v>-0.1570646290646291</v>
       </c>
       <c r="H4">
-        <v>-0.01023392223392223</v>
+        <v>-0.01477141477141477</v>
       </c>
       <c r="I4">
-        <v>0.06396708396708396</v>
+        <v>0.0628992268992269</v>
       </c>
       <c r="J4">
-        <v>-0.03366056166056166</v>
+        <v>-0.01317789717789718</v>
       </c>
       <c r="K4">
-        <v>0.0159009519009519</v>
+        <v>0.02454226854226854</v>
       </c>
       <c r="L4">
-        <v>-0.0002243642243642244</v>
+        <v>-0.005806889806889807</v>
       </c>
       <c r="M4">
-        <v>-0.008567936567936568</v>
+        <v>-0.01075467475467476</v>
       </c>
       <c r="N4">
-        <v>0.08393147993147994</v>
+        <v>0.08044727644727645</v>
       </c>
       <c r="O4">
-        <v>-0.1277531597531598</v>
+        <v>-0.1321237081237081</v>
       </c>
       <c r="P4">
-        <v>-0.02265836265836266</v>
+        <v>-0.0252031332031332</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -642,46 +657,1046 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>-0.02512520512520513</v>
+      </c>
+      <c r="E5">
+        <v>0.0765995445995446</v>
+      </c>
+      <c r="F5">
+        <v>0.001742269742269742</v>
+      </c>
+      <c r="G5">
+        <v>-0.02251701451701452</v>
+      </c>
+      <c r="H5">
+        <v>0.007878007878007878</v>
+      </c>
+      <c r="I5">
+        <v>0.02484418884418884</v>
+      </c>
+      <c r="J5">
+        <v>-0.0403967083967084</v>
+      </c>
+      <c r="K5">
+        <v>-0.04536641736641737</v>
+      </c>
+      <c r="L5">
+        <v>0.002693534693534694</v>
+      </c>
+      <c r="M5">
+        <v>-0.06647407847407848</v>
+      </c>
+      <c r="N5">
+        <v>0.04882801282801283</v>
+      </c>
+      <c r="O5">
+        <v>-0.0318959958959959</v>
+      </c>
+      <c r="P5">
+        <v>0.01631435231435232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>-0.01192145992145992</v>
+      </c>
+      <c r="E6">
+        <v>0.2224629304629305</v>
+      </c>
+      <c r="F6">
+        <v>-0.04125833325833326</v>
+      </c>
+      <c r="G6">
+        <v>-0.02948320148320148</v>
+      </c>
+      <c r="H6">
+        <v>0.04411952011952012</v>
+      </c>
+      <c r="I6">
+        <v>0.04583651783651783</v>
+      </c>
+      <c r="J6">
+        <v>-0.03177366777366777</v>
+      </c>
+      <c r="K6">
+        <v>0.01365958965958966</v>
+      </c>
+      <c r="L6">
+        <v>-0.01701318501318501</v>
+      </c>
+      <c r="M6">
+        <v>-0.05352702552702553</v>
+      </c>
+      <c r="N6">
+        <v>0.02518476118476119</v>
+      </c>
+      <c r="O6">
+        <v>0.008754548754548754</v>
+      </c>
+      <c r="P6">
+        <v>-0.01475640275640276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0.3028012108012108</v>
+      </c>
+      <c r="E7">
+        <v>0.1062295062295062</v>
+      </c>
+      <c r="F7">
+        <v>0.0430983430983431</v>
+      </c>
+      <c r="G7">
+        <v>0.0244043524043524</v>
+      </c>
+      <c r="H7">
+        <v>0.003919119919119919</v>
+      </c>
+      <c r="I7">
+        <v>0.05329355329355329</v>
+      </c>
+      <c r="J7">
+        <v>-0.07330654930654931</v>
+      </c>
+      <c r="K7">
+        <v>0.01351858951858952</v>
+      </c>
+      <c r="L7">
+        <v>-0.03732691332691333</v>
+      </c>
+      <c r="M7">
+        <v>-0.07135441135441135</v>
+      </c>
+      <c r="N7">
+        <v>-0.03489466689466689</v>
+      </c>
+      <c r="O7">
+        <v>-0.03666373266373266</v>
+      </c>
+      <c r="P7">
+        <v>0.0005171405171405172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>0.02512297312297312</v>
+      </c>
+      <c r="E8">
+        <v>0.174038202038202</v>
+      </c>
+      <c r="F8">
+        <v>-0.1487106527106527</v>
+      </c>
+      <c r="G8">
+        <v>-0.1982848982848983</v>
+      </c>
+      <c r="H8">
+        <v>0.0265994425994426</v>
+      </c>
+      <c r="I8">
+        <v>0.06456168456168457</v>
+      </c>
+      <c r="J8">
+        <v>-0.04098832098832099</v>
+      </c>
+      <c r="K8">
+        <v>-0.001177993177993178</v>
+      </c>
+      <c r="L8">
+        <v>0.02751907551907552</v>
+      </c>
+      <c r="M8">
+        <v>-0.05442827442827443</v>
+      </c>
+      <c r="N8">
+        <v>-0.01866603066603066</v>
+      </c>
+      <c r="O8">
+        <v>-0.07195543195543196</v>
+      </c>
+      <c r="P8">
+        <v>-0.01325630525630526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>0.01838769038769039</v>
+      </c>
+      <c r="E9">
+        <v>0.04781300381300381</v>
+      </c>
+      <c r="F9">
+        <v>-0.03392789792789793</v>
+      </c>
+      <c r="G9">
+        <v>-0.0526004566004566</v>
+      </c>
+      <c r="H9">
+        <v>0.03728528528528528</v>
+      </c>
+      <c r="I9">
+        <v>0.05667310467310467</v>
+      </c>
+      <c r="J9">
+        <v>-0.06206118206118206</v>
+      </c>
+      <c r="K9">
+        <v>0.03588981588981589</v>
+      </c>
+      <c r="L9">
+        <v>-0.01614527214527214</v>
+      </c>
+      <c r="M9">
+        <v>-0.003786111786111786</v>
+      </c>
+      <c r="N9">
+        <v>-0.07713517713517713</v>
+      </c>
+      <c r="O9">
+        <v>-0.0270995070995071</v>
+      </c>
+      <c r="P9">
+        <v>-0.02265819465819466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0.3942631542631543</v>
+      </c>
+      <c r="E10">
+        <v>0.6172940932940933</v>
+      </c>
+      <c r="F10">
+        <v>-0.1717919437919438</v>
+      </c>
+      <c r="G10">
+        <v>-0.09257618057618057</v>
+      </c>
+      <c r="H10">
+        <v>-0.159030339030339</v>
+      </c>
+      <c r="I10">
+        <v>-0.01304388104388104</v>
+      </c>
+      <c r="J10">
+        <v>0.06240739440739441</v>
+      </c>
+      <c r="K10">
+        <v>0.04097980097980098</v>
+      </c>
+      <c r="L10">
+        <v>0.02975358575358575</v>
+      </c>
+      <c r="M10">
+        <v>-0.00338031938031938</v>
+      </c>
+      <c r="N10">
+        <v>0.02052726852726853</v>
+      </c>
+      <c r="O10">
+        <v>0.3124859044859045</v>
+      </c>
+      <c r="P10">
+        <v>0.2889242769242769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>-0.3249138129138129</v>
+      </c>
+      <c r="E11">
+        <v>0.2374964494964495</v>
+      </c>
+      <c r="F11">
+        <v>-0.1506394626394627</v>
+      </c>
+      <c r="G11">
+        <v>-0.02598997398997399</v>
+      </c>
+      <c r="H11">
+        <v>-0.562029982029982</v>
+      </c>
+      <c r="I11">
+        <v>-0.04813126813126813</v>
+      </c>
+      <c r="J11">
+        <v>0.1121854601854602</v>
+      </c>
+      <c r="K11">
+        <v>0.253988161988162</v>
+      </c>
+      <c r="L11">
+        <v>-0.008357708357708358</v>
+      </c>
+      <c r="M11">
+        <v>0.007854163854163853</v>
+      </c>
+      <c r="N11">
+        <v>-0.00647017847017847</v>
+      </c>
+      <c r="O11">
+        <v>0.07775054975054975</v>
+      </c>
+      <c r="P11">
+        <v>0.6058407298407298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>-0.2650605010605011</v>
+      </c>
+      <c r="E12">
+        <v>0.3297219537219537</v>
+      </c>
+      <c r="F12">
+        <v>-0.1803250803250803</v>
+      </c>
+      <c r="G12">
+        <v>0.05658212058212058</v>
+      </c>
+      <c r="H12">
+        <v>-0.5206208206208206</v>
+      </c>
+      <c r="I12">
+        <v>-0.03976833976833977</v>
+      </c>
+      <c r="J12">
+        <v>0.1288207888207888</v>
+      </c>
+      <c r="K12">
+        <v>0.2218844698844699</v>
+      </c>
+      <c r="L12">
+        <v>0.005998085998085998</v>
+      </c>
+      <c r="M12">
+        <v>0.02891458091458091</v>
+      </c>
+      <c r="N12">
+        <v>-0.02188905388905389</v>
+      </c>
+      <c r="O12">
+        <v>0.1624059664059664</v>
+      </c>
+      <c r="P12">
+        <v>0.5708707868707869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>-0.147980727980728</v>
+      </c>
+      <c r="E13">
+        <v>0.1183446223446223</v>
+      </c>
+      <c r="F13">
+        <v>-0.03333366933366933</v>
+      </c>
+      <c r="G13">
+        <v>0.04475987675987676</v>
+      </c>
+      <c r="H13">
+        <v>-0.5138965658965658</v>
+      </c>
+      <c r="I13">
+        <v>-0.0385987345987346</v>
+      </c>
+      <c r="J13">
+        <v>0.1082309762309762</v>
+      </c>
+      <c r="K13">
+        <v>0.2786414786414786</v>
+      </c>
+      <c r="L13">
+        <v>-0.004978468978468978</v>
+      </c>
+      <c r="M13">
+        <v>0.0171954291954292</v>
+      </c>
+      <c r="N13">
+        <v>-0.01057077457077457</v>
+      </c>
+      <c r="O13">
+        <v>0.273938577938578</v>
+      </c>
+      <c r="P13">
+        <v>0.6903043503043503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>0.4571358011358012</v>
+      </c>
+      <c r="E14">
+        <v>0.5991527991527992</v>
+      </c>
+      <c r="F14">
+        <v>-0.1972495612495613</v>
+      </c>
+      <c r="G14">
+        <v>-0.1159463719463719</v>
+      </c>
+      <c r="H14">
+        <v>-0.06053864453864454</v>
+      </c>
+      <c r="I14">
+        <v>-0.001347781347781348</v>
+      </c>
+      <c r="J14">
+        <v>-0.01834762234762235</v>
+      </c>
+      <c r="K14">
+        <v>0.0404917604917605</v>
+      </c>
+      <c r="L14">
+        <v>-0.00474940074940075</v>
+      </c>
+      <c r="M14">
+        <v>0.0292016452016452</v>
+      </c>
+      <c r="N14">
+        <v>-0.05051819051819052</v>
+      </c>
+      <c r="O14">
+        <v>0.2856857136857137</v>
+      </c>
+      <c r="P14">
+        <v>0.2092409812409812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>-0.1247413967413967</v>
+      </c>
+      <c r="E15">
+        <v>0.1971362811362811</v>
+      </c>
+      <c r="F15">
+        <v>-0.1315090915090915</v>
+      </c>
+      <c r="G15">
+        <v>-0.01672901272901273</v>
+      </c>
+      <c r="H15">
+        <v>-0.5544105984105984</v>
+      </c>
+      <c r="I15">
+        <v>-0.01818991818991819</v>
+      </c>
+      <c r="J15">
+        <v>0.0582004902004902</v>
+      </c>
+      <c r="K15">
+        <v>0.2817394617394617</v>
+      </c>
+      <c r="L15">
+        <v>0.001786909786909787</v>
+      </c>
+      <c r="M15">
+        <v>-0.0008577728577728578</v>
+      </c>
+      <c r="N15">
+        <v>-0.01477429477429477</v>
+      </c>
+      <c r="O15">
+        <v>0.1478750918750919</v>
+      </c>
+      <c r="P15">
+        <v>0.6621755901755901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>-0.1266527226527226</v>
+      </c>
+      <c r="E16">
+        <v>0.2991301551301551</v>
+      </c>
+      <c r="F16">
+        <v>-0.1426591066591067</v>
+      </c>
+      <c r="G16">
+        <v>0.1423504663504664</v>
+      </c>
+      <c r="H16">
+        <v>-0.5027928707928708</v>
+      </c>
+      <c r="I16">
+        <v>-0.02807911607911608</v>
+      </c>
+      <c r="J16">
+        <v>-0.002076614076614077</v>
+      </c>
+      <c r="K16">
+        <v>0.23401347001347</v>
+      </c>
+      <c r="L16">
+        <v>-0.02791503991503991</v>
+      </c>
+      <c r="M16">
+        <v>0.04817029217029217</v>
+      </c>
+      <c r="N16">
+        <v>0.05477607077607077</v>
+      </c>
+      <c r="O16">
+        <v>0.1748154068154068</v>
+      </c>
+      <c r="P16">
+        <v>0.6154188994188994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>-0.06131895731895732</v>
+      </c>
+      <c r="E17">
+        <v>0.09753674553674553</v>
+      </c>
+      <c r="F17">
+        <v>-0.02289391089391089</v>
+      </c>
+      <c r="G17">
+        <v>0.04594880194880195</v>
+      </c>
+      <c r="H17">
+        <v>-0.4697809577809578</v>
+      </c>
+      <c r="I17">
+        <v>-0.02835875235875236</v>
+      </c>
+      <c r="J17">
+        <v>0.05868565068565069</v>
+      </c>
+      <c r="K17">
+        <v>0.2813070293070293</v>
+      </c>
+      <c r="L17">
+        <v>0.01023985023985024</v>
+      </c>
+      <c r="M17">
+        <v>0.01148953148953149</v>
+      </c>
+      <c r="N17">
+        <v>-0.01512848712848713</v>
+      </c>
+      <c r="O17">
+        <v>0.3540964980964981</v>
+      </c>
+      <c r="P17">
+        <v>0.7017649977649978</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>-0.07656754056754057</v>
-      </c>
-      <c r="E5">
-        <v>0.0758000798000798</v>
-      </c>
-      <c r="F5">
-        <v>0.0239002559002559</v>
-      </c>
-      <c r="G5">
-        <v>-0.01946789546789547</v>
-      </c>
-      <c r="H5">
-        <v>0.01134271134271134</v>
-      </c>
-      <c r="I5">
-        <v>0.01714790914790915</v>
-      </c>
-      <c r="J5">
-        <v>-0.05663684063684064</v>
-      </c>
-      <c r="K5">
-        <v>-0.06289601089601089</v>
-      </c>
-      <c r="L5">
-        <v>-0.007035451035451035</v>
-      </c>
-      <c r="M5">
-        <v>-0.06091142491142491</v>
-      </c>
-      <c r="N5">
-        <v>0.04204981804981805</v>
-      </c>
-      <c r="O5">
-        <v>-0.01923723123723124</v>
-      </c>
-      <c r="P5">
-        <v>0.00607979407979408</v>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>0.06657767457767458</v>
+      </c>
+      <c r="E18">
+        <v>0.856025248025248</v>
+      </c>
+      <c r="F18">
+        <v>-0.1478245718245718</v>
+      </c>
+      <c r="G18">
+        <v>-0.09380990180990181</v>
+      </c>
+      <c r="H18">
+        <v>-0.1123003483003483</v>
+      </c>
+      <c r="I18">
+        <v>-0.01783444183444183</v>
+      </c>
+      <c r="J18">
+        <v>0.05016553416553417</v>
+      </c>
+      <c r="K18">
+        <v>0.03313343713343713</v>
+      </c>
+      <c r="L18">
+        <v>-0.01164184764184764</v>
+      </c>
+      <c r="M18">
+        <v>0.04936518136518137</v>
+      </c>
+      <c r="N18">
+        <v>-0.04526270126270127</v>
+      </c>
+      <c r="O18">
+        <v>0.1965537285537285</v>
+      </c>
+      <c r="P18">
+        <v>0.08917463317463317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>-0.2655831375831376</v>
+      </c>
+      <c r="E19">
+        <v>0.3482596082596083</v>
+      </c>
+      <c r="F19">
+        <v>-0.1012095652095652</v>
+      </c>
+      <c r="G19">
+        <v>-0.1097813537813538</v>
+      </c>
+      <c r="H19">
+        <v>-0.5942915822915823</v>
+      </c>
+      <c r="I19">
+        <v>-0.06513756513756513</v>
+      </c>
+      <c r="J19">
+        <v>0.1002046002046002</v>
+      </c>
+      <c r="K19">
+        <v>0.2400548280548281</v>
+      </c>
+      <c r="L19">
+        <v>-0.02066723666723667</v>
+      </c>
+      <c r="M19">
+        <v>0.007173259173259173</v>
+      </c>
+      <c r="N19">
+        <v>0.01206062406062406</v>
+      </c>
+      <c r="O19">
+        <v>-0.05606400806400806</v>
+      </c>
+      <c r="P19">
+        <v>0.4919125439125439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>-0.3085768765768766</v>
+      </c>
+      <c r="E20">
+        <v>0.4778401658401659</v>
+      </c>
+      <c r="F20">
+        <v>-0.1101470901470901</v>
+      </c>
+      <c r="G20">
+        <v>-0.2388903588903589</v>
+      </c>
+      <c r="H20">
+        <v>-0.4398081198081198</v>
+      </c>
+      <c r="I20">
+        <v>-0.02919425319425319</v>
+      </c>
+      <c r="J20">
+        <v>0.07142420342420343</v>
+      </c>
+      <c r="K20">
+        <v>0.1815656055656056</v>
+      </c>
+      <c r="L20">
+        <v>0.008505092505092505</v>
+      </c>
+      <c r="M20">
+        <v>-0.008494568494568495</v>
+      </c>
+      <c r="N20">
+        <v>-0.0031001191001191</v>
+      </c>
+      <c r="O20">
+        <v>0.0007426327426327426</v>
+      </c>
+      <c r="P20">
+        <v>0.3844027324027324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>-0.2691637371637371</v>
+      </c>
+      <c r="E21">
+        <v>0.2172957852957853</v>
+      </c>
+      <c r="F21">
+        <v>-0.05755220155220155</v>
+      </c>
+      <c r="G21">
+        <v>-0.01592647592647593</v>
+      </c>
+      <c r="H21">
+        <v>-0.6034784794784794</v>
+      </c>
+      <c r="I21">
+        <v>-0.04836003636003636</v>
+      </c>
+      <c r="J21">
+        <v>0.06467592467592467</v>
+      </c>
+      <c r="K21">
+        <v>0.2388391308391308</v>
+      </c>
+      <c r="L21">
+        <v>0.01243798843798844</v>
+      </c>
+      <c r="M21">
+        <v>-0.03056410256410256</v>
+      </c>
+      <c r="N21">
+        <v>0.001629481629481629</v>
+      </c>
+      <c r="O21">
+        <v>0.1783648903648904</v>
+      </c>
+      <c r="P21">
+        <v>0.4871850791850792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0.2006150606150606</v>
+      </c>
+      <c r="E22">
+        <v>0.8477511677511678</v>
+      </c>
+      <c r="F22">
+        <v>-0.1404631284631285</v>
+      </c>
+      <c r="G22">
+        <v>-0.100039252039252</v>
+      </c>
+      <c r="H22">
+        <v>-0.07133299133299133</v>
+      </c>
+      <c r="I22">
+        <v>-0.009859473859473859</v>
+      </c>
+      <c r="J22">
+        <v>-0.01857438657438657</v>
+      </c>
+      <c r="K22">
+        <v>0.02948239748239748</v>
+      </c>
+      <c r="L22">
+        <v>0.007284907284907285</v>
+      </c>
+      <c r="M22">
+        <v>0.03230502830502831</v>
+      </c>
+      <c r="N22">
+        <v>-0.04796859596859597</v>
+      </c>
+      <c r="O22">
+        <v>0.1705281385281385</v>
+      </c>
+      <c r="P22">
+        <v>0.07557831957831958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>-0.2527431247431248</v>
+      </c>
+      <c r="E23">
+        <v>0.3615652575652576</v>
+      </c>
+      <c r="F23">
+        <v>-0.123018471018471</v>
+      </c>
+      <c r="G23">
+        <v>-0.08944420144420144</v>
+      </c>
+      <c r="H23">
+        <v>-0.5881386361386362</v>
+      </c>
+      <c r="I23">
+        <v>-0.03400971400971401</v>
+      </c>
+      <c r="J23">
+        <v>0.0273977553977554</v>
+      </c>
+      <c r="K23">
+        <v>0.2542165222165222</v>
+      </c>
+      <c r="L23">
+        <v>0.002872298872298872</v>
+      </c>
+      <c r="M23">
+        <v>-0.01464139464139464</v>
+      </c>
+      <c r="N23">
+        <v>0.01108046308046308</v>
+      </c>
+      <c r="O23">
+        <v>-0.04247861447861448</v>
+      </c>
+      <c r="P23">
+        <v>0.5264080784080785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>-0.27594551994552</v>
+      </c>
+      <c r="E24">
+        <v>0.5113344793344793</v>
+      </c>
+      <c r="F24">
+        <v>-0.1242596202596203</v>
+      </c>
+      <c r="G24">
+        <v>-0.2316501756501756</v>
+      </c>
+      <c r="H24">
+        <v>-0.450949002949003</v>
+      </c>
+      <c r="I24">
+        <v>-0.01575539175539176</v>
+      </c>
+      <c r="J24">
+        <v>0.002997302997302997</v>
+      </c>
+      <c r="K24">
+        <v>0.2093977253977254</v>
+      </c>
+      <c r="L24">
+        <v>0.01820682620682621</v>
+      </c>
+      <c r="M24">
+        <v>-0.02336767136767137</v>
+      </c>
+      <c r="N24">
+        <v>-0.01033993033993034</v>
+      </c>
+      <c r="O24">
+        <v>0.02307503907503907</v>
+      </c>
+      <c r="P24">
+        <v>0.3964837924837925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>-0.2605717525717526</v>
+      </c>
+      <c r="E25">
+        <v>0.2294369174369174</v>
+      </c>
+      <c r="F25">
+        <v>-0.07095573495573496</v>
+      </c>
+      <c r="G25">
+        <v>-0.008984048984048984</v>
+      </c>
+      <c r="H25">
+        <v>-0.5854786774786774</v>
+      </c>
+      <c r="I25">
+        <v>-0.05336826536826537</v>
+      </c>
+      <c r="J25">
+        <v>0.01835189435189435</v>
+      </c>
+      <c r="K25">
+        <v>0.2619514059514059</v>
+      </c>
+      <c r="L25">
+        <v>0.005163209163209163</v>
+      </c>
+      <c r="M25">
+        <v>0.003627759627759628</v>
+      </c>
+      <c r="N25">
+        <v>-0.01743314943314943</v>
+      </c>
+      <c r="O25">
+        <v>0.2129243849243849</v>
+      </c>
+      <c r="P25">
+        <v>0.4832930672930673</v>
       </c>
     </row>
   </sheetData>
